--- a/artfynd/A 57942-2021.xlsx
+++ b/artfynd/A 57942-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +794,4605 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112419590</v>
+      </c>
+      <c r="B3" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>609315</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7062917</v>
+      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112419099</v>
+      </c>
+      <c r="B4" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>609452</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7063030</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112420522</v>
+      </c>
+      <c r="B5" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>609185</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7062748</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112421986</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>609330</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7062965</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112421825</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>V Kyrkviken (V Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>609250</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7062808</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Martin Bergström</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Martin Bergström</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112418991</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>609465</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7063100</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112419760</v>
+      </c>
+      <c r="B9" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>609297</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7062904</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112420648</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>609107</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7062656</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112420671</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>609153</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7062664</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112419523</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>609290</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7062953</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112419769</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>609285</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7062912</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112420373</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>609225</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7062757</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15:09</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112419877</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>609283</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7062868</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112420438</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>609202</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7062748</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112420021</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>609250</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7062911</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112419808</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>609257</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7062915</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112419555</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>609312</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7062950</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112419640</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>609311</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7062913</v>
+      </c>
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112420929</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>609109</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7062620</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112420514</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>609173</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7062763</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112421050</v>
+      </c>
+      <c r="B23" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>609119</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7062638</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112420038</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>609253</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7062884</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>14:46</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>14:46</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112421181</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>609094</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7062625</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112420639</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>609176</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7062697</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112419790</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>609289</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7062900</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112419498</v>
+      </c>
+      <c r="B28" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>609312</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7062943</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112420597</v>
+      </c>
+      <c r="B29" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>609153</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7062703</v>
+      </c>
+      <c r="S29" t="n">
+        <v>25</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112419310</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>609331</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7063001</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>14:16</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>14:16</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112420223</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>609256</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7062788</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112419869</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>609280</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7062914</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112420041</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77388</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>609252</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7062881</v>
+      </c>
+      <c r="S33" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112419155</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>609465</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7063030</v>
+      </c>
+      <c r="S34" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112421093</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>609118</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7062629</v>
+      </c>
+      <c r="S35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Martin Bergström</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Martin Bergström</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112421234</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>609119</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7062618</v>
+      </c>
+      <c r="S36" t="n">
+        <v>25</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112419724</v>
+      </c>
+      <c r="B37" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>609307</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7062904</v>
+      </c>
+      <c r="S37" t="n">
+        <v>25</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112420901</v>
+      </c>
+      <c r="B38" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>609110</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7062646</v>
+      </c>
+      <c r="S38" t="n">
+        <v>25</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112421961</v>
+      </c>
+      <c r="B39" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>609331</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7062965</v>
+      </c>
+      <c r="S39" t="n">
+        <v>25</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112419624</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>609280</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7062930</v>
+      </c>
+      <c r="S40" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112420547</v>
+      </c>
+      <c r="B41" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Skalberget (Skalberget), Ång</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>609164</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7062737</v>
+      </c>
+      <c r="S41" t="n">
+        <v>25</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112419749</v>
+      </c>
+      <c r="B42" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>V Kyrkviken (V Kyrkviken), Ång</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>609239</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7062890</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Martin Bergström</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Martin Bergström</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 57942-2021.xlsx
+++ b/artfynd/A 57942-2021.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112419590</v>
+        <v>112420522</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,22 +829,18 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>609315</v>
+        <v>609185</v>
       </c>
       <c r="R3" t="n">
-        <v>7062917</v>
+        <v>7062748</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -876,7 +872,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -886,7 +882,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -901,22 +897,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112419099</v>
+        <v>112420648</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,22 +942,18 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>609452</v>
+        <v>609107</v>
       </c>
       <c r="R4" t="n">
-        <v>7063030</v>
+        <v>7062656</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -993,7 +985,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1003,7 +995,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112420522</v>
+        <v>112420547</v>
       </c>
       <c r="B5" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>609185</v>
+        <v>609164</v>
       </c>
       <c r="R5" t="n">
-        <v>7062748</v>
+        <v>7062737</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1106,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1116,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112421986</v>
+        <v>112421961</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,32 +1151,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>609330</v>
+        <v>609331</v>
       </c>
       <c r="R6" t="n">
         <v>7062965</v>
@@ -1219,7 +1216,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1229,7 +1226,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,10 +1253,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112421825</v>
+        <v>112418991</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1289,21 +1286,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>V Kyrkviken (V Kyrkviken), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>609250</v>
+        <v>609465</v>
       </c>
       <c r="R7" t="n">
-        <v>7062808</v>
+        <v>7063100</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1332,7 +1333,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1342,7 +1343,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1357,22 +1358,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Martin Bergström</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Martin Bergström</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112418991</v>
+        <v>112419869</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,20 +1405,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>609465</v>
+        <v>609280</v>
       </c>
       <c r="R8" t="n">
-        <v>7063100</v>
+        <v>7062914</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1449,7 +1450,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,22 +1475,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112419760</v>
+        <v>112420597</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,20 +1522,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>609297</v>
+        <v>609153</v>
       </c>
       <c r="R9" t="n">
-        <v>7062904</v>
+        <v>7062703</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1576,7 +1577,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1603,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112420648</v>
+        <v>112420901</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,39 +1616,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>609107</v>
+        <v>609110</v>
       </c>
       <c r="R10" t="n">
-        <v>7062656</v>
+        <v>7062646</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1689,7 +1695,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1716,10 +1722,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112420671</v>
+        <v>112419523</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,18 +1755,22 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>609153</v>
+        <v>609290</v>
       </c>
       <c r="R11" t="n">
-        <v>7062664</v>
+        <v>7062953</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1792,7 +1802,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1802,7 +1812,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1829,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112419523</v>
+        <v>112420639</v>
       </c>
       <c r="B12" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1862,22 +1872,18 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>609290</v>
+        <v>609176</v>
       </c>
       <c r="R12" t="n">
-        <v>7062953</v>
+        <v>7062697</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1909,7 +1915,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1925,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,10 +1952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112419769</v>
+        <v>112419310</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1958,43 +1964,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>609285</v>
+        <v>609331</v>
       </c>
       <c r="R13" t="n">
-        <v>7062912</v>
+        <v>7063001</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2026,7 +2033,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2036,7 +2043,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2063,10 +2070,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112420373</v>
+        <v>112420038</v>
       </c>
       <c r="B14" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,10 +2111,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>609225</v>
+        <v>609253</v>
       </c>
       <c r="R14" t="n">
-        <v>7062757</v>
+        <v>7062884</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2139,7 +2146,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2149,7 +2156,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2164,22 +2171,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112419877</v>
+        <v>112420929</v>
       </c>
       <c r="B15" t="n">
-        <v>77636</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2188,25 +2195,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2217,10 +2224,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>609283</v>
+        <v>609109</v>
       </c>
       <c r="R15" t="n">
-        <v>7062868</v>
+        <v>7062620</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2252,7 +2259,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2262,7 +2269,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2289,10 +2296,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112420438</v>
+        <v>112419099</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2324,20 +2331,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>609202</v>
+        <v>609452</v>
       </c>
       <c r="R16" t="n">
-        <v>7062748</v>
+        <v>7063030</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2369,7 +2376,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2379,7 +2386,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2406,10 +2413,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112420021</v>
+        <v>112419155</v>
       </c>
       <c r="B17" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,14 +2450,14 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>609250</v>
+        <v>609465</v>
       </c>
       <c r="R17" t="n">
-        <v>7062911</v>
+        <v>7063030</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2482,7 +2489,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2492,7 +2499,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2507,22 +2514,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112419808</v>
+        <v>112419769</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2552,7 +2559,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2560,10 +2571,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>609257</v>
+        <v>609285</v>
       </c>
       <c r="R18" t="n">
-        <v>7062915</v>
+        <v>7062912</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2595,7 +2606,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2605,7 +2616,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2635,7 +2646,7 @@
         <v>112419555</v>
       </c>
       <c r="B19" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2745,10 +2756,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112419640</v>
+        <v>112419760</v>
       </c>
       <c r="B20" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2757,44 +2768,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kläppsjö), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>609311</v>
+        <v>609297</v>
       </c>
       <c r="R20" t="n">
-        <v>7062913</v>
+        <v>7062904</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2826,7 +2836,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2836,7 +2846,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2863,10 +2873,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112420929</v>
+        <v>112420514</v>
       </c>
       <c r="B21" t="n">
-        <v>96720</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2875,25 +2885,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2904,10 +2914,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>609109</v>
+        <v>609173</v>
       </c>
       <c r="R21" t="n">
-        <v>7062620</v>
+        <v>7062763</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2939,7 +2949,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2949,7 +2959,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2976,10 +2986,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112420514</v>
+        <v>112419498</v>
       </c>
       <c r="B22" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2988,39 +2998,43 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>609173</v>
+        <v>609312</v>
       </c>
       <c r="R22" t="n">
-        <v>7062763</v>
+        <v>7062943</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3052,7 +3066,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3062,7 +3076,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3089,10 +3103,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112421050</v>
+        <v>112421181</v>
       </c>
       <c r="B23" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3101,44 +3115,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>609119</v>
+        <v>609094</v>
       </c>
       <c r="R23" t="n">
-        <v>7062638</v>
+        <v>7062625</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3207,10 +3216,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112420038</v>
+        <v>112420671</v>
       </c>
       <c r="B24" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3248,10 +3257,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609253</v>
+        <v>609153</v>
       </c>
       <c r="R24" t="n">
-        <v>7062884</v>
+        <v>7062664</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3283,7 +3292,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3293,7 +3302,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3320,10 +3329,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112421181</v>
+        <v>112419640</v>
       </c>
       <c r="B25" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3332,39 +3341,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>609094</v>
+        <v>609311</v>
       </c>
       <c r="R25" t="n">
-        <v>7062625</v>
+        <v>7062913</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3396,7 +3410,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3406,7 +3420,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3433,10 +3447,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112420639</v>
+        <v>112421093</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3474,13 +3488,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>609176</v>
+        <v>609118</v>
       </c>
       <c r="R26" t="n">
-        <v>7062697</v>
+        <v>7062629</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3509,7 +3523,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3519,7 +3533,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3534,22 +3548,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Martin Bergström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Martin Bergström</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112419790</v>
+        <v>112421986</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>78713</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3558,32 +3572,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3591,10 +3601,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>609289</v>
+        <v>609330</v>
       </c>
       <c r="R27" t="n">
-        <v>7062900</v>
+        <v>7062965</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3626,7 +3636,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3636,7 +3646,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3651,22 +3661,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112419498</v>
+        <v>112419724</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3675,43 +3685,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>609312</v>
+        <v>609307</v>
       </c>
       <c r="R28" t="n">
-        <v>7062943</v>
+        <v>7062904</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3743,7 +3754,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3753,7 +3764,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3780,10 +3791,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112420597</v>
+        <v>112419590</v>
       </c>
       <c r="B29" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3821,14 +3832,14 @@
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>609153</v>
+        <v>609315</v>
       </c>
       <c r="R29" t="n">
-        <v>7062703</v>
+        <v>7062917</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3860,7 +3871,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3870,7 +3881,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3897,10 +3908,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112419310</v>
+        <v>112419624</v>
       </c>
       <c r="B30" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3909,44 +3920,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kläppsjö), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>609331</v>
+        <v>609280</v>
       </c>
       <c r="R30" t="n">
-        <v>7063001</v>
+        <v>7062930</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3978,7 +3984,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3988,7 +3994,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4015,10 +4021,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112420223</v>
+        <v>112419808</v>
       </c>
       <c r="B31" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4027,44 +4033,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kläppsjö), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>609256</v>
+        <v>609257</v>
       </c>
       <c r="R31" t="n">
-        <v>7062788</v>
+        <v>7062915</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4096,7 +4097,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4106,7 +4107,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4121,22 +4122,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112419869</v>
+        <v>112421825</v>
       </c>
       <c r="B32" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4166,25 +4167,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>V Kyrkviken (V Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>609280</v>
+        <v>609250</v>
       </c>
       <c r="R32" t="n">
-        <v>7062914</v>
+        <v>7062808</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4213,7 +4210,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4223,7 +4220,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4238,22 +4235,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Martin Bergström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Martin Bergström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112420041</v>
+        <v>112421234</v>
       </c>
       <c r="B33" t="n">
-        <v>77388</v>
+        <v>96735</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4262,25 +4259,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4291,10 +4288,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>609252</v>
+        <v>609119</v>
       </c>
       <c r="R33" t="n">
-        <v>7062881</v>
+        <v>7062618</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4326,7 +4323,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4336,7 +4333,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4351,22 +4348,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112419155</v>
+        <v>112420223</v>
       </c>
       <c r="B34" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4379,35 +4376,40 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>609465</v>
+        <v>609256</v>
       </c>
       <c r="R34" t="n">
-        <v>7063030</v>
+        <v>7062788</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4439,7 +4441,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4449,7 +4451,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4476,10 +4478,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112421093</v>
+        <v>112419790</v>
       </c>
       <c r="B35" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4509,21 +4511,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>609118</v>
+        <v>609289</v>
       </c>
       <c r="R35" t="n">
-        <v>7062629</v>
+        <v>7062900</v>
       </c>
       <c r="S35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4552,7 +4558,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4562,7 +4568,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4577,22 +4583,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Martin Bergström</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Martin Bergström</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112421234</v>
+        <v>112420373</v>
       </c>
       <c r="B36" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4630,10 +4636,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>609119</v>
+        <v>609225</v>
       </c>
       <c r="R36" t="n">
-        <v>7062618</v>
+        <v>7062757</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4665,7 +4671,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4675,7 +4681,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4702,10 +4708,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112419724</v>
+        <v>112420021</v>
       </c>
       <c r="B37" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4718,40 +4724,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kläppsjö), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>609307</v>
+        <v>609250</v>
       </c>
       <c r="R37" t="n">
-        <v>7062904</v>
+        <v>7062911</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4783,7 +4784,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4793,7 +4794,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4808,22 +4809,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112420901</v>
+        <v>112419877</v>
       </c>
       <c r="B38" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4836,40 +4837,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>609110</v>
+        <v>609283</v>
       </c>
       <c r="R38" t="n">
-        <v>7062646</v>
+        <v>7062868</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4901,7 +4897,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4911,7 +4907,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4938,10 +4934,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112421961</v>
+        <v>112420438</v>
       </c>
       <c r="B39" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4950,44 +4946,43 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kläppsjö), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>609331</v>
+        <v>609202</v>
       </c>
       <c r="R39" t="n">
-        <v>7062965</v>
+        <v>7062748</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5019,7 +5014,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5029,7 +5024,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5044,22 +5039,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112419624</v>
+        <v>112420041</v>
       </c>
       <c r="B40" t="n">
-        <v>96720</v>
+        <v>77402</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5068,25 +5063,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5097,10 +5092,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>609280</v>
+        <v>609252</v>
       </c>
       <c r="R40" t="n">
-        <v>7062930</v>
+        <v>7062881</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5132,7 +5127,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5142,7 +5137,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5169,10 +5164,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112420547</v>
+        <v>112421050</v>
       </c>
       <c r="B41" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5181,39 +5176,44 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>609164</v>
+        <v>609119</v>
       </c>
       <c r="R41" t="n">
-        <v>7062737</v>
+        <v>7062638</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5270,12 +5270,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5285,7 +5285,7 @@
         <v>112419749</v>
       </c>
       <c r="B42" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>

--- a/artfynd/A 57942-2021.xlsx
+++ b/artfynd/A 57942-2021.xlsx
@@ -1487,10 +1487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112420597</v>
+        <v>112420901</v>
       </c>
       <c r="B9" t="n">
-        <v>96735</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,43 +1499,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>609153</v>
+        <v>609110</v>
       </c>
       <c r="R9" t="n">
-        <v>7062703</v>
+        <v>7062646</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1567,7 +1568,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1577,7 +1578,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112420901</v>
+        <v>112420597</v>
       </c>
       <c r="B10" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,44 +1617,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>609110</v>
+        <v>609153</v>
       </c>
       <c r="R10" t="n">
-        <v>7062646</v>
+        <v>7062703</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -4247,10 +4247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112421234</v>
+        <v>112420223</v>
       </c>
       <c r="B33" t="n">
-        <v>96735</v>
+        <v>56430</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4259,39 +4259,44 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Skalberget (Skalberget), Ång</t>
+          <t>Kyrkviken (Kläppsjö), Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>609119</v>
+        <v>609256</v>
       </c>
       <c r="R33" t="n">
-        <v>7062618</v>
+        <v>7062788</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4323,7 +4328,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4333,7 +4338,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4360,10 +4365,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112420223</v>
+        <v>112419790</v>
       </c>
       <c r="B34" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4372,44 +4377,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kläppsjö), Ång</t>
+          <t>Kyrkviken (Kyrkviken), Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>609256</v>
+        <v>609289</v>
       </c>
       <c r="R34" t="n">
-        <v>7062788</v>
+        <v>7062900</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4441,7 +4445,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4451,7 +4455,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4478,7 +4482,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112419790</v>
+        <v>112420373</v>
       </c>
       <c r="B35" t="n">
         <v>96735</v>
@@ -4511,22 +4515,18 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Kyrkviken (Kyrkviken), Ång</t>
+          <t>Skalberget (Skalberget), Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>609289</v>
+        <v>609225</v>
       </c>
       <c r="R35" t="n">
-        <v>7062900</v>
+        <v>7062757</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4595,7 +4595,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112420373</v>
+        <v>112421234</v>
       </c>
       <c r="B36" t="n">
         <v>96735</v>
@@ -4636,10 +4636,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>609225</v>
+        <v>609119</v>
       </c>
       <c r="R36" t="n">
-        <v>7062757</v>
+        <v>7062618</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD36" t="b">
